--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Microalbuminuria (UPTO).xlsx
@@ -667,7 +667,7 @@
         <v>-14.62300836564177</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.581811148670731</v>
+        <v>-9.581811148670727</v>
       </c>
       <c r="F3" t="n">
         <v>-19.36536450674805</v>
@@ -685,7 +685,7 @@
         <v>11.5611871203275</v>
       </c>
       <c r="K3" t="n">
-        <v>6.470024515007799</v>
+        <v>6.470024515007797</v>
       </c>
       <c r="L3" t="n">
         <v>17.47935380771012</v>
@@ -709,7 +709,7 @@
         <v>20.7992025426395</v>
       </c>
       <c r="S3" t="n">
-        <v>8.674901078953104</v>
+        <v>8.674901078953106</v>
       </c>
       <c r="T3" t="n">
         <v>5.013237985893118</v>
@@ -724,13 +724,13 @@
         <v>1.904436730422407</v>
       </c>
       <c r="X3" t="n">
-        <v>6.569540076834432</v>
+        <v>6.569540076834431</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8153089351134954</v>
+        <v>0.8153089351134952</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08365109056273284</v>
+        <v>0.08365109056273289</v>
       </c>
       <c r="AA3" t="n">
         <v>1.861783942916943</v>
@@ -756,19 +756,19 @@
         <v>-15.26921409775067</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.79060031272021</v>
+        <v>-7.790600312720214</v>
       </c>
       <c r="H4" t="n">
         <v>-5.935183804101465</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.159055453359962</v>
+        <v>-9.159055453359958</v>
       </c>
       <c r="J4" t="n">
         <v>12.7809811202382</v>
       </c>
       <c r="K4" t="n">
-        <v>7.382863026441962</v>
+        <v>7.382863026441961</v>
       </c>
       <c r="L4" t="n">
         <v>19.21045998004618</v>
@@ -792,7 +792,7 @@
         <v>20.05447195811369</v>
       </c>
       <c r="S4" t="n">
-        <v>7.912443214067263</v>
+        <v>7.912443214067264</v>
       </c>
       <c r="T4" t="n">
         <v>4.534524847348988</v>
@@ -807,13 +807,13 @@
         <v>1.694820105108533</v>
       </c>
       <c r="X4" t="n">
-        <v>5.933803488664278</v>
+        <v>5.933803488664277</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7156327480651146</v>
+        <v>0.7156327480651145</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07286844240392656</v>
+        <v>0.07286844240392659</v>
       </c>
       <c r="AA4" t="n">
         <v>1.652544362122548</v>
@@ -830,28 +830,28 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.322118700899932</v>
+        <v>-4.322118700899931</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.140457208007049</v>
+        <v>-3.140457208007048</v>
       </c>
       <c r="F5" t="n">
         <v>-4.910124963737521</v>
       </c>
       <c r="G5" t="n">
-        <v>2.805620979682262</v>
+        <v>2.80562097968226</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8220350994080299</v>
+        <v>0.822035099408029</v>
       </c>
       <c r="I5" t="n">
         <v>5.527917449379977</v>
       </c>
       <c r="J5" t="n">
-        <v>10.22993723155296</v>
+        <v>10.22993723155297</v>
       </c>
       <c r="K5" t="n">
-        <v>5.738222795419595</v>
+        <v>5.738222795419594</v>
       </c>
       <c r="L5" t="n">
         <v>15.42545526286272</v>
@@ -875,7 +875,7 @@
         <v>15.49751089783561</v>
       </c>
       <c r="S5" t="n">
-        <v>7.084853703124645</v>
+        <v>7.084853703124646</v>
       </c>
       <c r="T5" t="n">
         <v>4.065728293028288</v>
@@ -896,7 +896,7 @@
         <v>0.7147972633829964</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06099662483833442</v>
+        <v>0.06099662483833443</v>
       </c>
       <c r="AA5" t="n">
         <v>1.658926881148572</v>
@@ -940,7 +940,7 @@
         <v>18.57180368081268</v>
       </c>
       <c r="M6" t="n">
-        <v>11.99298756850546</v>
+        <v>11.99298756850547</v>
       </c>
       <c r="N6" t="n">
         <v>7.326157462401163</v>
@@ -958,7 +958,7 @@
         <v>11.16317359845241</v>
       </c>
       <c r="S6" t="n">
-        <v>4.742181483871392</v>
+        <v>4.742181483871393</v>
       </c>
       <c r="T6" t="n">
         <v>2.618068363061939</v>
@@ -979,7 +979,7 @@
         <v>0.4669581566100385</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0315592682938203</v>
+        <v>0.03155926829382029</v>
       </c>
       <c r="AA6" t="n">
         <v>1.13094745709566</v>
@@ -1062,7 +1062,7 @@
         <v>0.3722453616848999</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04071050718296733</v>
+        <v>0.04071050718296734</v>
       </c>
       <c r="AA7" t="n">
         <v>0.8964913169220584</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2878520121894166</v>
+        <v>-0.2878520121894148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1607238823136443</v>
+        <v>0.1607238823136425</v>
       </c>
       <c r="F8" t="n">
         <v>-1.429309218546203</v>
       </c>
       <c r="G8" t="n">
-        <v>6.150898493458502</v>
+        <v>6.150898493458503</v>
       </c>
       <c r="H8" t="n">
         <v>4.320760264320769</v>
@@ -1115,7 +1115,7 @@
         <v>47.19846055113059</v>
       </c>
       <c r="P8" t="n">
-        <v>9.244766095074986</v>
+        <v>9.24476609507499</v>
       </c>
       <c r="Q8" t="n">
         <v>5.471872972259658</v>
@@ -1124,7 +1124,7 @@
         <v>13.61249924954535</v>
       </c>
       <c r="S8" t="n">
-        <v>2.431263749939873</v>
+        <v>2.431263749939871</v>
       </c>
       <c r="T8" t="n">
         <v>1.079167103384146</v>
@@ -1136,19 +1136,19 @@
         <v>0.512216449794507</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1723524529120628</v>
+        <v>0.1723524529120627</v>
       </c>
       <c r="X8" t="n">
         <v>1.237955591663626</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02910375892378567</v>
+        <v>0.02910375892378561</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01927266531583435</v>
+        <v>0.01927266531583438</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1367463298888567</v>
+        <v>0.1367463298888568</v>
       </c>
     </row>
     <row r="9">
@@ -1165,13 +1165,13 @@
         <v>-0.8850390966253476</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7857044859449163</v>
+        <v>-0.7857044859449154</v>
       </c>
       <c r="F9" t="n">
         <v>-0.6212841414736037</v>
       </c>
       <c r="G9" t="n">
-        <v>6.49639664300526</v>
+        <v>6.496396643005259</v>
       </c>
       <c r="H9" t="n">
         <v>3.56956973475631</v>
@@ -1180,7 +1180,7 @@
         <v>9.89707146132459</v>
       </c>
       <c r="J9" t="n">
-        <v>13.92037152419813</v>
+        <v>13.92037152419814</v>
       </c>
       <c r="K9" t="n">
         <v>8.43370051154535</v>
@@ -1207,7 +1207,7 @@
         <v>13.6846658822346</v>
       </c>
       <c r="S9" t="n">
-        <v>5.522049970740725</v>
+        <v>5.522049970740726</v>
       </c>
       <c r="T9" t="n">
         <v>3.080837338530572</v>
@@ -1225,10 +1225,10 @@
         <v>4.308382123838738</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5183933946013235</v>
+        <v>0.5183933946013234</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04518994957955127</v>
+        <v>0.04518994957955128</v>
       </c>
       <c r="AA9" t="n">
         <v>1.226994833593222</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.102079011119448</v>
+        <v>3.102079011119449</v>
       </c>
       <c r="E10" t="n">
         <v>2.410828424437953</v>
@@ -1257,7 +1257,7 @@
         <v>13.56611770413008</v>
       </c>
       <c r="H10" t="n">
-        <v>9.132421693733047</v>
+        <v>9.132421693733045</v>
       </c>
       <c r="I10" t="n">
         <v>17.61426899567549</v>
@@ -1281,7 +1281,7 @@
         <v>38.72291077016488</v>
       </c>
       <c r="P10" t="n">
-        <v>7.080313076912169</v>
+        <v>7.08031307691217</v>
       </c>
       <c r="Q10" t="n">
         <v>4.028549902315126</v>
@@ -1290,10 +1290,10 @@
         <v>10.76762311921377</v>
       </c>
       <c r="S10" t="n">
-        <v>1.613507260458299</v>
+        <v>1.613507260458298</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5889334505060579</v>
+        <v>0.5889334505060577</v>
       </c>
       <c r="U10" t="n">
         <v>3.276994616668302</v>
@@ -1308,13 +1308,13 @@
         <v>0.7366476301830498</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01938297375241066</v>
+        <v>-0.0193829737524106</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01140060508893279</v>
+        <v>0.0114006050889328</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0272460674247359</v>
+        <v>0.02724606742473601</v>
       </c>
     </row>
     <row r="11">
@@ -1331,7 +1331,7 @@
         <v>7.9539303012724</v>
       </c>
       <c r="E11" t="n">
-        <v>5.158291210640513</v>
+        <v>5.158291210640514</v>
       </c>
       <c r="F11" t="n">
         <v>11.08786686556212</v>
@@ -1391,10 +1391,10 @@
         <v>1.809346373707331</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1750060082211087</v>
+        <v>0.1750060082211088</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01303201435859203</v>
+        <v>0.01303201435859202</v>
       </c>
       <c r="AA11" t="n">
         <v>0.4709417883927329</v>
@@ -1420,7 +1420,7 @@
         <v>22.81564958460106</v>
       </c>
       <c r="G12" t="n">
-        <v>24.78599952757491</v>
+        <v>24.7859995275749</v>
       </c>
       <c r="H12" t="n">
         <v>15.75407522068219</v>
@@ -1432,13 +1432,13 @@
         <v>13.8937984666413</v>
       </c>
       <c r="K12" t="n">
-        <v>8.770716859551666</v>
+        <v>8.770716859551667</v>
       </c>
       <c r="L12" t="n">
         <v>19.43415355113724</v>
       </c>
       <c r="M12" t="n">
-        <v>1.077895576899026</v>
+        <v>1.077895576899028</v>
       </c>
       <c r="N12" t="n">
         <v>0.07009982520111713</v>
@@ -1447,16 +1447,16 @@
         <v>2.663154558802063</v>
       </c>
       <c r="P12" t="n">
-        <v>2.973019227817094</v>
+        <v>2.973019227817093</v>
       </c>
       <c r="Q12" t="n">
         <v>1.522096627500134</v>
       </c>
       <c r="R12" t="n">
-        <v>4.793367522573317</v>
+        <v>4.793367522573316</v>
       </c>
       <c r="S12" t="n">
-        <v>2.351788240544854</v>
+        <v>2.351788240544855</v>
       </c>
       <c r="T12" t="n">
         <v>1.164380854243523</v>
@@ -1474,10 +1474,10 @@
         <v>2.246308529061457</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2697188031462474</v>
+        <v>0.2697188031462475</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.003880775469444991</v>
+        <v>0.00388077546944497</v>
       </c>
       <c r="AA12" t="n">
         <v>0.7053979285663342</v>
@@ -1503,7 +1503,7 @@
         <v>22.60432745933129</v>
       </c>
       <c r="G13" t="n">
-        <v>28.16494492537672</v>
+        <v>28.16494492537673</v>
       </c>
       <c r="H13" t="n">
         <v>18.56939254431065</v>
@@ -1533,7 +1533,7 @@
         <v>1.801270756223185</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5632624840501337</v>
+        <v>0.5632624840501341</v>
       </c>
       <c r="R13" t="n">
         <v>3.689169775153491</v>
@@ -1554,13 +1554,13 @@
         <v>-0.2417426427798027</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01070294327491217</v>
+        <v>0.01070294327491261</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.07165369642581376</v>
+        <v>-0.0716536964258136</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.01410189376239034</v>
+        <v>-0.01410189376239035</v>
       </c>
       <c r="AA13" t="n">
         <v>-0.0624187900468024</v>
@@ -1622,10 +1622,10 @@
         <v>7.34345325932076</v>
       </c>
       <c r="S14" t="n">
-        <v>1.593841217536209</v>
+        <v>1.593841217536208</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6318076476208343</v>
+        <v>0.6318076476208345</v>
       </c>
       <c r="U14" t="n">
         <v>3.030165608928421</v>
@@ -1640,13 +1640,13 @@
         <v>1.16067863923141</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07591952223574566</v>
+        <v>0.07591952223574575</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.003401090411551629</v>
+        <v>0.003401090411551625</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2590116304050257</v>
+        <v>0.2590116304050256</v>
       </c>
     </row>
     <row r="15">
@@ -1663,7 +1663,7 @@
         <v>5.978770963841903</v>
       </c>
       <c r="E15" t="n">
-        <v>3.300896732656631</v>
+        <v>3.300896732656632</v>
       </c>
       <c r="F15" t="n">
         <v>9.545114579272999</v>
@@ -1678,16 +1678,16 @@
         <v>20.05676700972823</v>
       </c>
       <c r="J15" t="n">
-        <v>8.898687342778436</v>
+        <v>8.898687342778437</v>
       </c>
       <c r="K15" t="n">
-        <v>5.006421075831391</v>
+        <v>5.00642107583139</v>
       </c>
       <c r="L15" t="n">
         <v>13.37155671801532</v>
       </c>
       <c r="M15" t="n">
-        <v>3.629110330874775</v>
+        <v>3.629110330874774</v>
       </c>
       <c r="N15" t="n">
         <v>1.459576430653932</v>
@@ -1696,7 +1696,7 @@
         <v>6.386090577159969</v>
       </c>
       <c r="P15" t="n">
-        <v>7.311807534538588</v>
+        <v>7.311807534538587</v>
       </c>
       <c r="Q15" t="n">
         <v>4.539328565921624</v>
@@ -1705,7 +1705,7 @@
         <v>10.19581925303171</v>
       </c>
       <c r="S15" t="n">
-        <v>5.494806327296187</v>
+        <v>5.494806327296189</v>
       </c>
       <c r="T15" t="n">
         <v>3.118218600163458</v>
@@ -1726,7 +1726,7 @@
         <v>0.6142855916524974</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.038342159113936</v>
+        <v>0.03834215911393599</v>
       </c>
       <c r="AA15" t="n">
         <v>1.4560698193802</v>
@@ -1788,7 +1788,7 @@
         <v>11.03382005983265</v>
       </c>
       <c r="S16" t="n">
-        <v>4.727026282826496</v>
+        <v>4.727026282826497</v>
       </c>
       <c r="T16" t="n">
         <v>2.607082492098157</v>
@@ -1853,7 +1853,7 @@
         <v>18.48603975686852</v>
       </c>
       <c r="M17" t="n">
-        <v>1.965214297493738</v>
+        <v>1.965214297493741</v>
       </c>
       <c r="N17" t="n">
         <v>0.5971073339984567</v>
@@ -1862,7 +1862,7 @@
         <v>3.968090222993691</v>
       </c>
       <c r="P17" t="n">
-        <v>3.182821358222771</v>
+        <v>3.18282135822277</v>
       </c>
       <c r="Q17" t="n">
         <v>1.667830414104257</v>
@@ -1892,7 +1892,7 @@
         <v>0.2673599988941765</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0007261213776185264</v>
+        <v>-0.0007261213776185473</v>
       </c>
       <c r="AA17" t="n">
         <v>0.7161602373395809</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-10.2636978499114</v>
+        <v>-10.26369784991139</v>
       </c>
       <c r="E18" t="n">
         <v>-6.948576145328366</v>
@@ -1930,7 +1930,7 @@
         <v>12.28064260310869</v>
       </c>
       <c r="K18" t="n">
-        <v>7.034942749138991</v>
+        <v>7.03494274913899</v>
       </c>
       <c r="L18" t="n">
         <v>18.73640308291183</v>
@@ -1948,7 +1948,7 @@
         <v>14.80775340599181</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.484372500782179</v>
+        <v>9.484372500782181</v>
       </c>
       <c r="R18" t="n">
         <v>20.18382549673345</v>
@@ -1972,10 +1972,10 @@
         <v>5.959665781275811</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7144533459390792</v>
+        <v>0.7144533459390789</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07056499398039481</v>
+        <v>0.07056499398039484</v>
       </c>
       <c r="AA18" t="n">
         <v>1.657925516509171</v>
@@ -2007,7 +2007,7 @@
         <v>18.9279917524993</v>
       </c>
       <c r="I19" t="n">
-        <v>39.64969702878228</v>
+        <v>39.64969702878227</v>
       </c>
       <c r="J19" t="n">
         <v>17.83440201785123</v>
@@ -2019,7 +2019,7 @@
         <v>24.31853658721244</v>
       </c>
       <c r="M19" t="n">
-        <v>3.048033082123119</v>
+        <v>3.048033082123121</v>
       </c>
       <c r="N19" t="n">
         <v>1.650138592199948</v>
@@ -2034,7 +2034,7 @@
         <v>0.3756681907794137</v>
       </c>
       <c r="R19" t="n">
-        <v>2.915845737662432</v>
+        <v>2.91584573766243</v>
       </c>
       <c r="S19" t="n">
         <v>0.7814069076384862</v>
@@ -2043,22 +2043,22 @@
         <v>0.1739969642639168</v>
       </c>
       <c r="U19" t="n">
-        <v>1.743228538937903</v>
+        <v>1.743228538937904</v>
       </c>
       <c r="V19" t="n">
         <v>0.3675702141389485</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03970454437261284</v>
+        <v>0.03970454437261273</v>
       </c>
       <c r="X19" t="n">
         <v>0.8972484748865472</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07390463542759207</v>
+        <v>0.07390463542759224</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.01077417557757228</v>
+        <v>-0.0107741755775723</v>
       </c>
       <c r="AA19" t="n">
         <v>0.270775303817673</v>
@@ -2081,7 +2081,7 @@
         <v>9.52337471052229</v>
       </c>
       <c r="F20" t="n">
-        <v>22.62295917133451</v>
+        <v>22.62295917133452</v>
       </c>
       <c r="G20" t="n">
         <v>21.23430505499971</v>
@@ -2090,10 +2090,10 @@
         <v>13.31435316183596</v>
       </c>
       <c r="I20" t="n">
-        <v>29.81618552315576</v>
+        <v>29.81618552315577</v>
       </c>
       <c r="J20" t="n">
-        <v>11.42315817390684</v>
+        <v>11.42315817390683</v>
       </c>
       <c r="K20" t="n">
         <v>6.988077654860074</v>
@@ -2102,7 +2102,7 @@
         <v>16.51790513596528</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5364861845843336</v>
+        <v>0.5364861845843372</v>
       </c>
       <c r="N20" t="n">
         <v>-0.4564158038996275</v>
@@ -2111,7 +2111,7 @@
         <v>2.166396358092484</v>
       </c>
       <c r="P20" t="n">
-        <v>3.87263276600805</v>
+        <v>3.872632766008048</v>
       </c>
       <c r="Q20" t="n">
         <v>2.168177739162556</v>
@@ -2120,13 +2120,13 @@
         <v>5.861481953648518</v>
       </c>
       <c r="S20" t="n">
-        <v>3.152134108042933</v>
+        <v>3.152134108042935</v>
       </c>
       <c r="T20" t="n">
         <v>1.670558670197109</v>
       </c>
       <c r="U20" t="n">
-        <v>4.847492059959121</v>
+        <v>4.84749205995912</v>
       </c>
       <c r="V20" t="n">
         <v>1.705580345039144</v>
@@ -2141,7 +2141,7 @@
         <v>0.3664464848795396</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008904802569421871</v>
+        <v>0.008904802569421846</v>
       </c>
       <c r="AA20" t="n">
         <v>0.9280903953272881</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.990729734156203</v>
+        <v>7.990729734156204</v>
       </c>
       <c r="E21" t="n">
         <v>4.64003516505562</v>
@@ -2185,10 +2185,10 @@
         <v>15.57671978748574</v>
       </c>
       <c r="M21" t="n">
-        <v>4.836008763635499</v>
+        <v>4.836008763635498</v>
       </c>
       <c r="N21" t="n">
-        <v>2.381347691352682</v>
+        <v>2.381347691352683</v>
       </c>
       <c r="O21" t="n">
         <v>7.861550526013268</v>
@@ -2203,7 +2203,7 @@
         <v>9.321735129886148</v>
       </c>
       <c r="S21" t="n">
-        <v>4.71719326136545</v>
+        <v>4.717193261365452</v>
       </c>
       <c r="T21" t="n">
         <v>2.628519590655546</v>
@@ -2218,13 +2218,13 @@
         <v>1.068205685418617</v>
       </c>
       <c r="X21" t="n">
-        <v>4.057883105799642</v>
+        <v>4.057883105799643</v>
       </c>
       <c r="Y21" t="n">
         <v>0.5157888067301521</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02986295937866148</v>
+        <v>0.02986295937866146</v>
       </c>
       <c r="AA21" t="n">
         <v>1.241449084199181</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.665685907136348</v>
+        <v>7.665685907136349</v>
       </c>
       <c r="E22" t="n">
-        <v>5.307981252033949</v>
+        <v>5.30798125203395</v>
       </c>
       <c r="F22" t="n">
-        <v>9.903162327879651</v>
+        <v>9.903162327879649</v>
       </c>
       <c r="G22" t="n">
         <v>19.6162916020707</v>
       </c>
       <c r="H22" t="n">
-        <v>13.09131933020766</v>
+        <v>13.09131933020765</v>
       </c>
       <c r="I22" t="n">
         <v>25.81577391519522</v>
@@ -2277,7 +2277,7 @@
         <v>30.89982882129499</v>
       </c>
       <c r="P22" t="n">
-        <v>5.020761123952189</v>
+        <v>5.02076112395219</v>
       </c>
       <c r="Q22" t="n">
         <v>2.658093725672654</v>
@@ -2286,7 +2286,7 @@
         <v>8.05210052750194</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8109059720216223</v>
+        <v>0.810905972021621</v>
       </c>
       <c r="T22" t="n">
         <v>0.1096856685917518</v>
@@ -2295,7 +2295,7 @@
         <v>2.113472050547726</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.08320554838125105</v>
+        <v>-0.08320554838125127</v>
       </c>
       <c r="W22" t="n">
         <v>-0.1496628529854241</v>
@@ -2304,13 +2304,13 @@
         <v>0.2612019613140077</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.06904910855464241</v>
+        <v>-0.0690491085546423</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.00122509643849945</v>
+        <v>0.001225096438499457</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.07687304065276157</v>
+        <v>-0.07687304065276146</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>13.47656754162889</v>
       </c>
       <c r="E23" t="n">
-        <v>7.815670273931846</v>
+        <v>7.815670273931847</v>
       </c>
       <c r="F23" t="n">
         <v>19.89550234736294</v>
@@ -2339,19 +2339,19 @@
         <v>9.714054733550014</v>
       </c>
       <c r="I23" t="n">
-        <v>23.57287123251995</v>
+        <v>23.57287123251996</v>
       </c>
       <c r="J23" t="n">
         <v>7.23238536413216</v>
       </c>
       <c r="K23" t="n">
-        <v>3.944679661431346</v>
+        <v>3.944679661431345</v>
       </c>
       <c r="L23" t="n">
         <v>11.39649365132291</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.211821640491079</v>
+        <v>-1.211821640491076</v>
       </c>
       <c r="N23" t="n">
         <v>-1.904702693699123</v>
@@ -2360,7 +2360,7 @@
         <v>0.1941782085296069</v>
       </c>
       <c r="P23" t="n">
-        <v>5.514508244585704</v>
+        <v>5.514508244585702</v>
       </c>
       <c r="Q23" t="n">
         <v>3.351039622534307</v>
@@ -2369,13 +2369,13 @@
         <v>7.803680507869283</v>
       </c>
       <c r="S23" t="n">
-        <v>4.73009304147175</v>
+        <v>4.730093041471751</v>
       </c>
       <c r="T23" t="n">
         <v>2.666435495658606</v>
       </c>
       <c r="U23" t="n">
-        <v>6.911647518729702</v>
+        <v>6.911647518729701</v>
       </c>
       <c r="V23" t="n">
         <v>2.597095546565638</v>
@@ -2390,7 +2390,7 @@
         <v>0.5616709515351772</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02240802940467326</v>
+        <v>0.02240802940467324</v>
       </c>
       <c r="AA23" t="n">
         <v>1.365403597269261</v>
@@ -2416,7 +2416,7 @@
         <v>5.825643630885491</v>
       </c>
       <c r="G24" t="n">
-        <v>12.54657054094588</v>
+        <v>12.54657054094587</v>
       </c>
       <c r="H24" t="n">
         <v>7.528467371230919</v>
@@ -2452,7 +2452,7 @@
         <v>10.96914329052277</v>
       </c>
       <c r="S24" t="n">
-        <v>4.719448682304048</v>
+        <v>4.719448682304049</v>
       </c>
       <c r="T24" t="n">
         <v>2.601589556616266</v>
@@ -2473,7 +2473,7 @@
         <v>0.4687272597990917</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03501444092911794</v>
+        <v>0.03501444092911793</v>
       </c>
       <c r="AA24" t="n">
         <v>1.122875725515725</v>
@@ -2502,7 +2502,7 @@
         <v>0.4462227450646434</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.389327901718298</v>
+        <v>-0.3893279017182998</v>
       </c>
       <c r="I25" t="n">
         <v>1.695566541804865</v>
@@ -2511,13 +2511,13 @@
         <v>14.33582721002065</v>
       </c>
       <c r="K25" t="n">
-        <v>8.625641232687968</v>
+        <v>8.625641232687967</v>
       </c>
       <c r="L25" t="n">
         <v>20.86273067422726</v>
       </c>
       <c r="M25" t="n">
-        <v>23.22765927227792</v>
+        <v>23.22765927227791</v>
       </c>
       <c r="N25" t="n">
         <v>14.97697885150262</v>
@@ -2541,7 +2541,7 @@
         <v>3.560085120444878</v>
       </c>
       <c r="U25" t="n">
-        <v>9.421278995787977</v>
+        <v>9.421278995787976</v>
       </c>
       <c r="V25" t="n">
         <v>2.883152426402467</v>
@@ -2553,10 +2553,10 @@
         <v>4.783827792707781</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5680595294035552</v>
+        <v>0.5680595294035551</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05536545822998461</v>
+        <v>0.05536545822998462</v>
       </c>
       <c r="AA25" t="n">
         <v>1.33111394167072</v>
@@ -2594,16 +2594,16 @@
         <v>9.618142825559634</v>
       </c>
       <c r="K26" t="n">
-        <v>5.571339309962584</v>
+        <v>5.571339309962583</v>
       </c>
       <c r="L26" t="n">
         <v>14.62860599321703</v>
       </c>
       <c r="M26" t="n">
-        <v>5.723327484230209</v>
+        <v>5.723327484230211</v>
       </c>
       <c r="N26" t="n">
-        <v>2.908355200150021</v>
+        <v>2.908355200150022</v>
       </c>
       <c r="O26" t="n">
         <v>9.166486190204896</v>
@@ -2618,7 +2618,7 @@
         <v>9.580442207125666</v>
       </c>
       <c r="S26" t="n">
-        <v>4.747503663455243</v>
+        <v>4.747503663455244</v>
       </c>
       <c r="T26" t="n">
         <v>2.650491332583109</v>
@@ -2633,13 +2633,13 @@
         <v>1.079816480155322</v>
       </c>
       <c r="X26" t="n">
-        <v>4.109607691022711</v>
+        <v>4.109607691022712</v>
       </c>
       <c r="Y26" t="n">
         <v>0.5134300024780812</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02525606253159796</v>
+        <v>0.02525606253159795</v>
       </c>
       <c r="AA26" t="n">
         <v>1.252211392972428</v>
@@ -2683,7 +2683,7 @@
         <v>27.70191345372958</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.2664207443159974</v>
+        <v>-0.2664207443159938</v>
       </c>
       <c r="N27" t="n">
         <v>-0.3976055195529469</v>
@@ -2704,25 +2704,25 @@
         <v>-1.568842912137215</v>
       </c>
       <c r="T27" t="n">
-        <v>-1.279155901184324</v>
+        <v>-1.279155901184323</v>
       </c>
       <c r="U27" t="n">
         <v>-1.420206823030495</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.8142827003708728</v>
+        <v>-0.8142827003708724</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.5463417565722321</v>
+        <v>-0.5463417565722323</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.888463809240104</v>
+        <v>-0.8884638092401036</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.1733447702823481</v>
+        <v>-0.1733447702823479</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.03905980791032053</v>
+        <v>-0.03905980791032056</v>
       </c>
       <c r="AA27" t="n">
         <v>-0.2598946974285505</v>
@@ -2742,7 +2742,7 @@
         <v>1.3783646349412</v>
       </c>
       <c r="E28" t="n">
-        <v>0.921999950645529</v>
+        <v>0.9219999506455294</v>
       </c>
       <c r="F28" t="n">
         <v>2.10617268249798</v>
@@ -2784,7 +2784,7 @@
         <v>11.74246732801383</v>
       </c>
       <c r="S28" t="n">
-        <v>3.944091037311909</v>
+        <v>3.94409103731191</v>
       </c>
       <c r="T28" t="n">
         <v>2.084960513069074</v>
@@ -2805,7 +2805,7 @@
         <v>0.3231689279456859</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03168672274429987</v>
+        <v>0.03168672274429989</v>
       </c>
       <c r="AA28" t="n">
         <v>0.7896816316512492</v>
@@ -2858,7 +2858,7 @@
         <v>-7.302669824292376</v>
       </c>
       <c r="P29" t="n">
-        <v>3.507406824227143</v>
+        <v>3.507406824227141</v>
       </c>
       <c r="Q29" t="n">
         <v>2.017016892542867</v>
@@ -2867,7 +2867,7 @@
         <v>5.152834685467335</v>
       </c>
       <c r="S29" t="n">
-        <v>3.93506935355752</v>
+        <v>3.935069353557522</v>
       </c>
       <c r="T29" t="n">
         <v>2.192680649226192</v>
@@ -2882,13 +2882,13 @@
         <v>0.9848339916767666</v>
       </c>
       <c r="X29" t="n">
-        <v>3.846177526677848</v>
+        <v>3.846177526677849</v>
       </c>
       <c r="Y29" t="n">
         <v>0.5114151156699277</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01108079654247405</v>
+        <v>0.01108079654247402</v>
       </c>
       <c r="AA29" t="n">
         <v>1.263975066385075</v>
@@ -2932,7 +2932,7 @@
         <v>19.7500174778594</v>
       </c>
       <c r="M30" t="n">
-        <v>7.471635309305624</v>
+        <v>7.471635309305626</v>
       </c>
       <c r="N30" t="n">
         <v>4.356642089949518</v>
@@ -2965,13 +2965,13 @@
         <v>0.6402643387383389</v>
       </c>
       <c r="X30" t="n">
-        <v>2.747616490542033</v>
+        <v>2.747616490542034</v>
       </c>
       <c r="Y30" t="n">
         <v>0.3182055358224437</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01175283569634657</v>
+        <v>0.01175283569634655</v>
       </c>
       <c r="AA30" t="n">
         <v>0.814898191030455</v>
@@ -2991,7 +2991,7 @@
         <v>7.162795984631854</v>
       </c>
       <c r="E31" t="n">
-        <v>4.570849243651036</v>
+        <v>4.570849243651035</v>
       </c>
       <c r="F31" t="n">
         <v>9.517781501346571</v>
@@ -3024,7 +3024,7 @@
         <v>29.90631241987583</v>
       </c>
       <c r="P31" t="n">
-        <v>6.819988200334101</v>
+        <v>6.819988200334102</v>
       </c>
       <c r="Q31" t="n">
         <v>3.950255948997498</v>
@@ -3033,7 +3033,7 @@
         <v>10.18832938965234</v>
       </c>
       <c r="S31" t="n">
-        <v>2.411597707017782</v>
+        <v>2.411597707017781</v>
       </c>
       <c r="T31" t="n">
         <v>1.122041300498922</v>
@@ -3054,7 +3054,7 @@
         <v>0.124406254911942</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0112731506384532</v>
+        <v>0.01127315063845321</v>
       </c>
       <c r="AA31" t="n">
         <v>0.3685118928691465</v>
@@ -3077,13 +3077,13 @@
         <v>0.7481658493031214</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1407761456693439</v>
+        <v>0.1407761456693457</v>
       </c>
       <c r="G32" t="n">
         <v>12.7445138570168</v>
       </c>
       <c r="H32" t="n">
-        <v>8.398227220762159</v>
+        <v>8.398227220762157</v>
       </c>
       <c r="I32" t="n">
         <v>16.83531219872159</v>
@@ -3098,7 +3098,7 @@
         <v>33.54774516154961</v>
       </c>
       <c r="M32" t="n">
-        <v>27.7093436750408</v>
+        <v>27.70934367504079</v>
       </c>
       <c r="N32" t="n">
         <v>18.66357201460103</v>
@@ -3107,7 +3107,7 @@
         <v>36.92121690526368</v>
       </c>
       <c r="P32" t="n">
-        <v>7.770124484697448</v>
+        <v>7.770124484697449</v>
       </c>
       <c r="Q32" t="n">
         <v>4.528897227373425</v>
@@ -3116,7 +3116,7 @@
         <v>11.57703047304945</v>
       </c>
       <c r="S32" t="n">
-        <v>2.383542725866588</v>
+        <v>2.383542725866586</v>
       </c>
       <c r="T32" t="n">
         <v>1.073139524532079</v>
@@ -3134,10 +3134,10 @@
         <v>1.385315364658971</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07970351223295238</v>
+        <v>0.07970351223295247</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02103152903597318</v>
+        <v>0.0210315290359732</v>
       </c>
       <c r="AA32" t="n">
         <v>0.2391762254124432</v>
@@ -3175,7 +3175,7 @@
         <v>21.13595368223072</v>
       </c>
       <c r="K33" t="n">
-        <v>13.80667536130573</v>
+        <v>13.80667536130574</v>
       </c>
       <c r="L33" t="n">
         <v>28.81462665009744</v>
@@ -3199,10 +3199,10 @@
         <v>7.27877649001088</v>
       </c>
       <c r="S33" t="n">
-        <v>1.586263617013761</v>
+        <v>1.58626361701376</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6263147121389434</v>
+        <v>0.6263147121389436</v>
       </c>
       <c r="U33" t="n">
         <v>3.014104943197731</v>
@@ -3217,10 +3217,10 @@
         <v>1.147747492925643</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07650922329876339</v>
+        <v>0.07650922329876347</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.004552814623317509</v>
+        <v>0.004552814623317506</v>
       </c>
       <c r="AA33" t="n">
         <v>0.2563210532117139</v>
@@ -3258,13 +3258,13 @@
         <v>14.69813678072949</v>
       </c>
       <c r="K34" t="n">
-        <v>9.491614649843214</v>
+        <v>9.491614649843216</v>
       </c>
       <c r="L34" t="n">
         <v>20.37533889961678</v>
       </c>
       <c r="M34" t="n">
-        <v>-3.221627002152138</v>
+        <v>-3.221627002152134</v>
       </c>
       <c r="N34" t="n">
         <v>-2.767663670051192</v>
@@ -3273,7 +3273,7 @@
         <v>-3.031999609118717</v>
       </c>
       <c r="P34" t="n">
-        <v>0.276106399673254</v>
+        <v>0.2761063996732531</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.3122734275496053</v>
@@ -3282,10 +3282,10 @@
         <v>1.333114346335686</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7867290872223367</v>
+        <v>0.7867290872223371</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2064199337850869</v>
+        <v>0.2064199337850872</v>
       </c>
       <c r="U34" t="n">
         <v>1.651935366529343</v>
@@ -3300,10 +3300,10 @@
         <v>1.135126272022261</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1203764812956348</v>
+        <v>0.1203764812956349</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.01707738133979462</v>
+        <v>-0.01707738133979464</v>
       </c>
       <c r="AA34" t="n">
         <v>0.3920392396944412</v>
@@ -3365,13 +3365,13 @@
         <v>8.382974237430705</v>
       </c>
       <c r="S35" t="n">
-        <v>3.932002594912267</v>
+        <v>3.932002594912268</v>
       </c>
       <c r="T35" t="n">
         <v>2.133327645665742</v>
       </c>
       <c r="U35" t="n">
-        <v>5.962832628887627</v>
+        <v>5.962832628887628</v>
       </c>
       <c r="V35" t="n">
         <v>1.997392715243382</v>
@@ -3380,13 +3380,13 @@
         <v>0.8498809640522134</v>
       </c>
       <c r="X35" t="n">
-        <v>3.383353078712187</v>
+        <v>3.383353078712188</v>
       </c>
       <c r="Y35" t="n">
         <v>0.4178817228708245</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02253548385515284</v>
+        <v>0.02253548385515283</v>
       </c>
       <c r="AA35" t="n">
         <v>1.024137771824851</v>
@@ -3469,7 +3469,7 @@
         <v>0.3728350627479176</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04186223139473321</v>
+        <v>0.04186223139473323</v>
       </c>
       <c r="AA36" t="n">
         <v>0.8938007397287466</v>
@@ -3507,13 +3507,13 @@
         <v>9.452856398301876</v>
       </c>
       <c r="K37" t="n">
-        <v>5.553358727471453</v>
+        <v>5.553358727471452</v>
       </c>
       <c r="L37" t="n">
         <v>14.07571361792768</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.448582568027712</v>
+        <v>-0.4485825680277085</v>
       </c>
       <c r="N37" t="n">
         <v>-1.246435187399044</v>
@@ -3522,7 +3522,7 @@
         <v>1.017170325287093</v>
       </c>
       <c r="P37" t="n">
-        <v>4.667345238996167</v>
+        <v>4.667345238996166</v>
       </c>
       <c r="Q37" t="n">
         <v>2.741391957522916</v>
@@ -3531,7 +3531,7 @@
         <v>6.800242846103961</v>
       </c>
       <c r="S37" t="n">
-        <v>3.937324774496117</v>
+        <v>3.937324774496119</v>
       </c>
       <c r="T37" t="n">
         <v>2.165750615186912</v>
@@ -3552,7 +3552,7 @@
         <v>0.4643535687388672</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01623227809293051</v>
+        <v>0.01623227809293048</v>
       </c>
       <c r="AA37" t="n">
         <v>1.145401707701619</v>
@@ -3596,7 +3596,7 @@
         <v>25.81261431098132</v>
       </c>
       <c r="M38" t="n">
-        <v>4.920420555329876</v>
+        <v>4.92042055532988</v>
       </c>
       <c r="N38" t="n">
         <v>2.967165484496704</v>
@@ -3605,7 +3605,7 @@
         <v>7.415768321409866</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7986839392584191</v>
+        <v>0.7986839392584182</v>
       </c>
       <c r="Q38" t="n">
         <v>-0.0518122409768238</v>
@@ -3614,7 +3614,7 @@
         <v>2.235791922446504</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02652664327509413</v>
+        <v>0.02652664327509369</v>
       </c>
       <c r="T38" t="n">
         <v>-0.2992232387983229</v>
@@ -3632,10 +3632,10 @@
         <v>0.2744430330221603</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.0263612526838064</v>
+        <v>-0.02636125268380635</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.02270854794814444</v>
+        <v>-0.02270854794814446</v>
       </c>
       <c r="AA38" t="n">
         <v>0.06422630021658915</v>
@@ -3679,7 +3679,7 @@
         <v>18.17017583014636</v>
       </c>
       <c r="M39" t="n">
-        <v>-4.428525434912862</v>
+        <v>-4.428525434912858</v>
       </c>
       <c r="N39" t="n">
         <v>-3.689434930749943</v>
@@ -3688,7 +3688,7 @@
         <v>-4.507459557972016</v>
       </c>
       <c r="P39" t="n">
-        <v>1.018368340059952</v>
+        <v>1.018368340059951</v>
       </c>
       <c r="Q39" t="n">
         <v>0.2245073441597243</v>
@@ -3697,7 +3697,7 @@
         <v>2.207198469481249</v>
       </c>
       <c r="S39" t="n">
-        <v>1.564342153153073</v>
+        <v>1.564342153153074</v>
       </c>
       <c r="T39" t="n">
         <v>0.6961189432929994</v>
@@ -3706,7 +3706,7 @@
         <v>2.659922097318598</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9643237310193838</v>
+        <v>0.9643237310193837</v>
       </c>
       <c r="W39" t="n">
         <v>0.3240544302092044</v>
@@ -3715,10 +3715,10 @@
         <v>1.796725152803949</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2188732662179802</v>
+        <v>0.2188732662179803</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.008598181604520101</v>
+        <v>-0.008598181604520125</v>
       </c>
       <c r="AA39" t="n">
         <v>0.6066599748754602</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.136484057877596</v>
+        <v>-1.136484057877595</v>
       </c>
       <c r="E40" t="n">
         <v>-1.154270490136373</v>
@@ -3744,7 +3744,7 @@
         <v>-0.8139745547401436</v>
       </c>
       <c r="G40" t="n">
-        <v>2.944702170430061</v>
+        <v>2.944702170430059</v>
       </c>
       <c r="H40" t="n">
         <v>1.129847675910083</v>
@@ -3756,7 +3756,7 @@
         <v>11.44973123146367</v>
       </c>
       <c r="K40" t="n">
-        <v>6.651061306853759</v>
+        <v>6.651061306853758</v>
       </c>
       <c r="L40" t="n">
         <v>17.15656143519878</v>
@@ -3780,7 +3780,7 @@
         <v>14.7527803133098</v>
       </c>
       <c r="S40" t="n">
-        <v>6.322395838238805</v>
+        <v>6.322395838238806</v>
       </c>
       <c r="T40" t="n">
         <v>3.587015154484157</v>
@@ -3801,7 +3801,7 @@
         <v>0.6151210763346155</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.05021397667952814</v>
+        <v>0.05021397667952815</v>
       </c>
       <c r="AA40" t="n">
         <v>1.449687300354176</v>
@@ -3821,7 +3821,7 @@
         <v>-6.575173284384564</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.225257419074777</v>
+        <v>-4.225257419074778</v>
       </c>
       <c r="F41" t="n">
         <v>-9.226298863927875</v>
@@ -3881,10 +3881,10 @@
         <v>3.923144553707679</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.421321795424114</v>
+        <v>0.4213217954241139</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04973429162163478</v>
+        <v>0.04973429162163481</v>
       </c>
       <c r="AA41" t="n">
         <v>1.003301002192867</v>
@@ -3907,7 +3907,7 @@
         <v>9.026016466444041</v>
       </c>
       <c r="F42" t="n">
-        <v>19.87687063535971</v>
+        <v>19.87687063535972</v>
       </c>
       <c r="G42" t="n">
         <v>23.10912394932277</v>
@@ -3949,7 +3949,7 @@
         <v>1.584008196075163</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6532447461782229</v>
+        <v>0.6532447461782227</v>
       </c>
       <c r="U42" t="n">
         <v>2.90675110505848</v>
@@ -3967,7 +3967,7 @@
         <v>0.1235707702298239</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.0005986669271389466</v>
+        <v>-0.0005986669271389571</v>
       </c>
       <c r="AA42" t="n">
         <v>0.3748944118951705</v>
@@ -4011,7 +4011,7 @@
         <v>19.51298902929222</v>
       </c>
       <c r="M43" t="n">
-        <v>7.693464989454302</v>
+        <v>7.693464989454304</v>
       </c>
       <c r="N43" t="n">
         <v>4.488393967148853</v>
@@ -4029,7 +4029,7 @@
         <v>7.702920422214779</v>
       </c>
       <c r="S43" t="n">
-        <v>3.177122330548875</v>
+        <v>3.177122330548876</v>
       </c>
       <c r="T43" t="n">
         <v>1.660107442603502</v>
@@ -4050,7 +4050,7 @@
         <v>0.317615834759426</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01060111148458068</v>
+        <v>0.01060111148458067</v>
       </c>
       <c r="AA43" t="n">
         <v>0.8175887682237667</v>
@@ -4070,7 +4070,7 @@
         <v>-6.910566259486335</v>
       </c>
       <c r="E44" t="n">
-        <v>-4.180215557619163</v>
+        <v>-4.180215557619165</v>
       </c>
       <c r="F44" t="n">
         <v>-9.814300449807499</v>
@@ -4094,7 +4094,7 @@
         <v>29.45328294933094</v>
       </c>
       <c r="M44" t="n">
-        <v>31.68928654192595</v>
+        <v>31.68928654192594</v>
       </c>
       <c r="N44" t="n">
         <v>21.10657175795193</v>
@@ -4130,10 +4130,10 @@
         <v>3.209821087702923</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3251838147538395</v>
+        <v>0.3251838147538394</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.04586198873342379</v>
+        <v>0.04586198873342381</v>
       </c>
       <c r="AA44" t="n">
         <v>0.7779179582386019</v>
@@ -4177,7 +4177,7 @@
         <v>22.34347352052002</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.792898889242734</v>
+        <v>-1.79289888924273</v>
       </c>
       <c r="N45" t="n">
         <v>-1.714140532153108</v>
@@ -4195,7 +4195,7 @@
         <v>0.5237069925000011</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01669362181404876</v>
+        <v>0.01669362181404921</v>
       </c>
       <c r="T45" t="n">
         <v>-0.2777861402409345</v>
@@ -4204,19 +4204,19 @@
         <v>0.660009301470776</v>
       </c>
       <c r="V45" t="n">
-        <v>0.07870715837653153</v>
+        <v>0.07870715837653131</v>
       </c>
       <c r="W45" t="n">
         <v>-0.1038869164710733</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4864585375463402</v>
+        <v>0.4864585375463406</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02128999531027176</v>
+        <v>0.02128999531027181</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.02670830528683502</v>
+        <v>-0.02670830528683505</v>
       </c>
       <c r="AA45" t="n">
         <v>0.180109081706734</v>
@@ -4239,13 +4239,13 @@
         <v>1.350172273319195</v>
       </c>
       <c r="F46" t="n">
-        <v>2.29016172984131</v>
+        <v>2.290161729841308</v>
       </c>
       <c r="G46" t="n">
-        <v>7.14525141534516</v>
+        <v>7.145251415345161</v>
       </c>
       <c r="H46" t="n">
-        <v>4.679359472509428</v>
+        <v>4.679359472509429</v>
       </c>
       <c r="I46" t="n">
         <v>9.49679442634849</v>
@@ -4269,7 +4269,7 @@
         <v>37.40316045269782</v>
       </c>
       <c r="P46" t="n">
-        <v>8.827089620692661</v>
+        <v>8.827089620692663</v>
       </c>
       <c r="Q46" t="n">
         <v>5.284278678988938</v>
@@ -4278,7 +4278,7 @@
         <v>12.83917521205429</v>
       </c>
       <c r="S46" t="n">
-        <v>3.206621394932011</v>
+        <v>3.20662139493201</v>
       </c>
       <c r="T46" t="n">
         <v>1.595796146931337</v>
@@ -4293,16 +4293,16 @@
         <v>0.4537996400644783</v>
       </c>
       <c r="X46" t="n">
-        <v>2.124501123275262</v>
+        <v>2.124501123275261</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1746620907771915</v>
+        <v>0.1746620907771914</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.02260038350065242</v>
+        <v>0.02260038350065243</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.4699404237533323</v>
+        <v>0.4699404237533322</v>
       </c>
     </row>
     <row r="47">
@@ -4352,16 +4352,16 @@
         <v>24.38168253661672</v>
       </c>
       <c r="P47" t="n">
-        <v>3.171011301397886</v>
+        <v>3.171011301397887</v>
       </c>
       <c r="Q47" t="n">
         <v>1.433371335634306</v>
       </c>
       <c r="R47" t="n">
-        <v>5.595285013029631</v>
+        <v>5.595285013029632</v>
       </c>
       <c r="S47" t="n">
-        <v>0.03861508567473715</v>
+        <v>0.03861508567473582</v>
       </c>
       <c r="T47" t="n">
         <v>-0.3475903713949904</v>
@@ -4385,7 +4385,7 @@
         <v>-0.0135573090589974</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.1702298399570122</v>
+        <v>-0.1702298399570121</v>
       </c>
     </row>
     <row r="48">
@@ -4426,7 +4426,7 @@
         <v>18.96009665400288</v>
       </c>
       <c r="M48" t="n">
-        <v>1.521554937196381</v>
+        <v>1.521554937196385</v>
       </c>
       <c r="N48" t="n">
         <v>0.3336035795997869</v>
@@ -4435,7 +4435,7 @@
         <v>3.315622390897879</v>
       </c>
       <c r="P48" t="n">
-        <v>3.077920293019933</v>
+        <v>3.077920293019931</v>
       </c>
       <c r="Q48" t="n">
         <v>1.594963520802196</v>
@@ -4444,7 +4444,7 @@
         <v>4.922721061193075</v>
       </c>
       <c r="S48" t="n">
-        <v>2.36694344158975</v>
+        <v>2.366943441589751</v>
       </c>
       <c r="T48" t="n">
         <v>1.175366725207306</v>
@@ -4465,7 +4465,7 @@
         <v>0.268539401020212</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.001577327045913231</v>
+        <v>0.001577327045913211</v>
       </c>
       <c r="AA48" t="n">
         <v>0.7107790829529576</v>
@@ -4485,7 +4485,7 @@
         <v>-8.047442699310565</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.345519888675745</v>
+        <v>-5.345519888675743</v>
       </c>
       <c r="F49" t="n">
         <v>-10.38367032368391</v>
@@ -4494,7 +4494,7 @@
         <v>-0.3753811020486371</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.123522374689186</v>
+        <v>-1.123522374689188</v>
       </c>
       <c r="I49" t="n">
         <v>0.9166097448509589</v>
@@ -4503,7 +4503,7 @@
         <v>12.86586395154519</v>
       </c>
       <c r="K49" t="n">
-        <v>7.538842582602317</v>
+        <v>7.538842582602316</v>
       </c>
       <c r="L49" t="n">
         <v>18.89459605332402</v>
@@ -4527,7 +4527,7 @@
         <v>17.20959582778211</v>
       </c>
       <c r="S49" t="n">
-        <v>7.09468672458569</v>
+        <v>7.094686724585691</v>
       </c>
       <c r="T49" t="n">
         <v>4.0442911944709</v>
@@ -4548,7 +4548,7 @@
         <v>0.6671460153889182</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.064996382177025</v>
+        <v>0.06499638217702501</v>
       </c>
       <c r="AA49" t="n">
         <v>1.543044099658427</v>
@@ -4568,7 +4568,7 @@
         <v>13.14117456652712</v>
       </c>
       <c r="E50" t="n">
-        <v>7.860712135387459</v>
+        <v>7.86071213538746</v>
       </c>
       <c r="F50" t="n">
         <v>19.3075007614833</v>
@@ -4592,7 +4592,7 @@
         <v>14.54977051506204</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.8922419283250687</v>
+        <v>-0.8922419283250651</v>
       </c>
       <c r="N50" t="n">
         <v>-1.509938941797714</v>
@@ -4601,7 +4601,7 @@
         <v>0.3647024931912775</v>
       </c>
       <c r="P50" t="n">
-        <v>4.562444173793328</v>
+        <v>4.562444173793327</v>
       </c>
       <c r="Q50" t="n">
         <v>2.668525064220855</v>
@@ -4610,7 +4610,7 @@
         <v>6.670889307484202</v>
       </c>
       <c r="S50" t="n">
-        <v>3.922169573451221</v>
+        <v>3.922169573451223</v>
       </c>
       <c r="T50" t="n">
         <v>2.15476474422313</v>
@@ -4628,10 +4628,10 @@
         <v>3.595368583236367</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.4655329708649026</v>
+        <v>0.4655329708649027</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01853572651646226</v>
+        <v>0.01853572651646224</v>
       </c>
       <c r="AA50" t="n">
         <v>1.140020553314995</v>
@@ -4657,7 +4657,7 @@
         <v>-17.80398050845571</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.294726816198969</v>
+        <v>-9.294726816198972</v>
       </c>
       <c r="H51" t="n">
         <v>-7.095760173541189</v>
@@ -4669,13 +4669,13 @@
         <v>11.06084860319799</v>
       </c>
       <c r="K51" t="n">
-        <v>6.122104237704827</v>
+        <v>6.122104237704825</v>
       </c>
       <c r="L51" t="n">
         <v>17.00529691057577</v>
       </c>
       <c r="M51" t="n">
-        <v>26.98577245901439</v>
+        <v>26.98577245901438</v>
       </c>
       <c r="N51" t="n">
         <v>17.28822671765418</v>
@@ -4714,7 +4714,7 @@
         <v>0.8141295329874598</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.08134764213920108</v>
+        <v>0.08134764213920111</v>
       </c>
       <c r="AA51" t="n">
         <v>1.867165097303567</v>
@@ -4734,13 +4734,13 @@
         <v>-5.485445425526051</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.164601267956018</v>
+        <v>-3.16460126795602</v>
       </c>
       <c r="F52" t="n">
         <v>-8.060226038248624</v>
       </c>
       <c r="G52" t="n">
-        <v>4.507690799231943</v>
+        <v>4.507690799231945</v>
       </c>
       <c r="H52" t="n">
         <v>2.852371318378991</v>
@@ -4776,7 +4776,7 @@
         <v>15.23131395721672</v>
       </c>
       <c r="S52" t="n">
-        <v>3.971334680756448</v>
+        <v>3.971334680756447</v>
       </c>
       <c r="T52" t="n">
         <v>2.047579251436189</v>
@@ -4797,10 +4797,10 @@
         <v>0.2272767308945118</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.03853451320991515</v>
+        <v>0.03853451320991517</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.5606066458642713</v>
+        <v>0.5606066458642712</v>
       </c>
     </row>
     <row r="53">
@@ -4835,13 +4835,13 @@
         <v>12.22749648799503</v>
       </c>
       <c r="K53" t="n">
-        <v>7.708975445151622</v>
+        <v>7.708975445151623</v>
       </c>
       <c r="L53" t="n">
         <v>17.45909048444482</v>
       </c>
       <c r="M53" t="n">
-        <v>-3.763036394466829</v>
+        <v>-3.763036394466825</v>
       </c>
       <c r="N53" t="n">
         <v>-3.294179299151939</v>
@@ -4850,7 +4850,7 @@
         <v>-3.528757809828296</v>
       </c>
       <c r="P53" t="n">
-        <v>1.17571993786421</v>
+        <v>1.175719937864209</v>
       </c>
       <c r="Q53" t="n">
         <v>0.3338076841128168</v>
@@ -4874,13 +4874,13 @@
         <v>0.3327625262617332</v>
       </c>
       <c r="X53" t="n">
-        <v>1.83551859172125</v>
+        <v>1.835518591721251</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.217104163028927</v>
+        <v>0.2171041630289271</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.01205335423981775</v>
+        <v>-0.01205335423981778</v>
       </c>
       <c r="AA53" t="n">
         <v>0.6147317064553952</v>
@@ -4900,10 +4900,10 @@
         <v>7.152446836549938</v>
       </c>
       <c r="E54" t="n">
-        <v>3.947945018128319</v>
+        <v>3.94794501812832</v>
       </c>
       <c r="F54" t="n">
-        <v>11.10649857756533</v>
+        <v>11.10649857756534</v>
       </c>
       <c r="G54" t="n">
         <v>12.17587815010157</v>
@@ -4930,10 +4930,10 @@
         <v>1.723080185052602</v>
       </c>
       <c r="O54" t="n">
-        <v>7.038558409255781</v>
+        <v>7.038558409255783</v>
       </c>
       <c r="P54" t="n">
-        <v>7.416708599741426</v>
+        <v>7.416708599741425</v>
       </c>
       <c r="Q54" t="n">
         <v>4.612195459223686</v>
@@ -4942,7 +4942,7 @@
         <v>10.32517279165147</v>
       </c>
       <c r="S54" t="n">
-        <v>5.509961528341083</v>
+        <v>5.509961528341084</v>
       </c>
       <c r="T54" t="n">
         <v>3.12920447112724</v>
@@ -4963,7 +4963,7 @@
         <v>0.613106189526462</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.03603871069040424</v>
+        <v>0.03603871069040422</v>
       </c>
       <c r="AA54" t="n">
         <v>1.461450973766823</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>8.57756767051022</v>
+        <v>8.577567670510222</v>
       </c>
       <c r="E55" t="n">
         <v>4.963559307791463</v>
@@ -4995,13 +4995,13 @@
         <v>8.621261052390466</v>
       </c>
       <c r="I55" t="n">
-        <v>20.83572380668213</v>
+        <v>20.83572380668214</v>
       </c>
       <c r="J55" t="n">
         <v>10.36865060125389</v>
       </c>
       <c r="K55" t="n">
-        <v>6.093219725917041</v>
+        <v>6.09321972591704</v>
       </c>
       <c r="L55" t="n">
         <v>15.33969133891856</v>
@@ -5025,7 +5025,7 @@
         <v>9.386411899196029</v>
       </c>
       <c r="S55" t="n">
-        <v>4.724770861887898</v>
+        <v>4.7247708618879</v>
       </c>
       <c r="T55" t="n">
         <v>2.634012526137437</v>
@@ -5046,7 +5046,7 @@
         <v>0.5151991056671343</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0287112351668956</v>
+        <v>0.02871123516689559</v>
       </c>
       <c r="AA55" t="n">
         <v>1.244139661392493</v>
@@ -5108,7 +5108,7 @@
         <v>9.864945543102948</v>
       </c>
       <c r="S56" t="n">
-        <v>2.373709704405542</v>
+        <v>2.373709704405541</v>
       </c>
       <c r="T56" t="n">
         <v>1.094576623089468</v>
@@ -5129,10 +5129,10 @@
         <v>0.1273547602270306</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0170317716972826</v>
+        <v>0.01703177169728261</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.3550590069025881</v>
+        <v>0.355059006902588</v>
       </c>
     </row>
     <row r="57">
@@ -5152,7 +5152,7 @@
         <v>1.071689992038965</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9214681448155115</v>
+        <v>0.9214681448155133</v>
       </c>
       <c r="G57" t="n">
         <v>12.06199120065132</v>
@@ -5182,7 +5182,7 @@
         <v>37.24745082131158</v>
       </c>
       <c r="P57" t="n">
-        <v>7.822575017298868</v>
+        <v>7.822575017298869</v>
       </c>
       <c r="Q57" t="n">
         <v>4.565330674024455</v>
@@ -5191,7 +5191,7 @@
         <v>11.64170724235933</v>
       </c>
       <c r="S57" t="n">
-        <v>2.391120326389035</v>
+        <v>2.391120326389034</v>
       </c>
       <c r="T57" t="n">
         <v>1.07863246001397</v>
@@ -5209,10 +5209,10 @@
         <v>1.398246510964738</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.07911381116993466</v>
+        <v>0.07911381116993474</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0198798048242073</v>
+        <v>0.01987980482420732</v>
       </c>
       <c r="AA57" t="n">
         <v>0.2418668026057549</v>
@@ -5256,7 +5256,7 @@
         <v>13.8386851693605</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.2267528878790337</v>
+        <v>-0.2267528878790301</v>
       </c>
       <c r="N58" t="n">
         <v>-1.114683310199709</v>
@@ -5265,7 +5265,7 @@
         <v>1.343404241334998</v>
       </c>
       <c r="P58" t="n">
-        <v>4.719795771597586</v>
+        <v>4.719795771597585</v>
       </c>
       <c r="Q58" t="n">
         <v>2.777825404173947</v>
@@ -5274,7 +5274,7 @@
         <v>6.864919615413839</v>
       </c>
       <c r="S58" t="n">
-        <v>3.944902375018565</v>
+        <v>3.944902375018567</v>
       </c>
       <c r="T58" t="n">
         <v>2.171243550668803</v>
@@ -5289,13 +5289,13 @@
         <v>0.9217115258907544</v>
       </c>
       <c r="X58" t="n">
-        <v>3.634162022153668</v>
+        <v>3.634162022153669</v>
       </c>
       <c r="Y58" t="n">
         <v>0.4637638676758495</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.01508055388116462</v>
+        <v>0.0150805538811646</v>
       </c>
       <c r="AA58" t="n">
         <v>1.14809228489493</v>
@@ -5315,7 +5315,7 @@
         <v>5.150837214317553</v>
       </c>
       <c r="E59" t="n">
-        <v>3.231710811252048</v>
+        <v>3.231710811252047</v>
       </c>
       <c r="F59" t="n">
         <v>6.983015090641526</v>
@@ -5357,7 +5357,7 @@
         <v>11.06241351279791</v>
       </c>
       <c r="S59" t="n">
-        <v>3.189210772948518</v>
+        <v>3.189210772948517</v>
       </c>
       <c r="T59" t="n">
         <v>1.611740310006835</v>
@@ -5375,7 +5375,7 @@
         <v>2.323585481493674</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2229030398342874</v>
+        <v>0.2229030398342873</v>
       </c>
       <c r="Z59" t="n">
         <v>0.01975235037372772</v>
@@ -5398,7 +5398,7 @@
         <v>11.71605373256684</v>
       </c>
       <c r="E60" t="n">
-        <v>6.845097845724315</v>
+        <v>6.845097845724316</v>
       </c>
       <c r="F60" t="n">
         <v>17.55342634992443</v>
@@ -5413,7 +5413,7 @@
         <v>26.38411165055675</v>
       </c>
       <c r="J60" t="n">
-        <v>7.982893139826418</v>
+        <v>7.98289313982642</v>
       </c>
       <c r="K60" t="n">
         <v>4.466560077385803</v>
@@ -5431,7 +5431,7 @@
         <v>-0.7845235396141135</v>
       </c>
       <c r="P60" t="n">
-        <v>5.357156646781446</v>
+        <v>5.357156646781444</v>
       </c>
       <c r="Q60" t="n">
         <v>3.241739282581215</v>
@@ -5440,7 +5440,7 @@
         <v>7.609650199939646</v>
       </c>
       <c r="S60" t="n">
-        <v>4.707360239904405</v>
+        <v>4.707360239904407</v>
       </c>
       <c r="T60" t="n">
         <v>2.649956689212934</v>
@@ -5461,7 +5461,7 @@
         <v>0.5634400547242303</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0258632020399709</v>
+        <v>0.02586320203997088</v>
       </c>
       <c r="AA60" t="n">
         <v>1.357331865689326</v>
@@ -5514,7 +5514,7 @@
         <v>13.93391460608813</v>
       </c>
       <c r="P61" t="n">
-        <v>2.648433761812721</v>
+        <v>2.648433761812722</v>
       </c>
       <c r="Q61" t="n">
         <v>1.172910149061525</v>
@@ -5523,7 +5523,7 @@
         <v>4.692607436918814</v>
       </c>
       <c r="S61" t="n">
-        <v>0.7988175296219797</v>
+        <v>0.7988175296219793</v>
       </c>
       <c r="T61" t="n">
         <v>0.1580528011884195</v>
@@ -5541,10 +5541,10 @@
         <v>0.6981641166681345</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.02566368637049621</v>
+        <v>0.02566368637049629</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.007926142450647582</v>
+        <v>-0.007926142450647593</v>
       </c>
       <c r="AA61" t="n">
         <v>0.1575830995208399</v>
@@ -5591,7 +5591,7 @@
         <v>14.50453446604425</v>
       </c>
       <c r="N62" t="n">
-        <v>9.43271185850074</v>
+        <v>9.432711858500738</v>
       </c>
       <c r="O62" t="n">
         <v>19.95530269005682</v>
@@ -5624,10 +5624,10 @@
         <v>1.822277520013098</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.174416307158091</v>
+        <v>0.1744163071580911</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.01188029014682615</v>
+        <v>0.01188029014682614</v>
       </c>
       <c r="AA62" t="n">
         <v>0.4736323655860445</v>
@@ -5647,7 +5647,7 @@
         <v>26.00406150505347</v>
       </c>
       <c r="E63" t="n">
-        <v>16.48298469677086</v>
+        <v>16.48298469677087</v>
       </c>
       <c r="F63" t="n">
         <v>36.08618458992911</v>
@@ -5671,7 +5671,7 @@
         <v>25.49675038425916</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.47331917707672</v>
+        <v>-1.473319177076716</v>
       </c>
       <c r="N63" t="n">
         <v>-1.319376780251696</v>
@@ -5692,7 +5692,7 @@
         <v>-0.7912298462064786</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.7894568916764111</v>
+        <v>-0.7894568916764106</v>
       </c>
       <c r="U63" t="n">
         <v>-0.4122200922412391</v>
@@ -5701,19 +5701,19 @@
         <v>-0.3707370854389911</v>
       </c>
       <c r="W63" t="n">
-        <v>-0.3309197338900053</v>
+        <v>-0.3309197338900052</v>
       </c>
       <c r="X63" t="n">
         <v>-0.2268649284584159</v>
       </c>
       <c r="Y63" t="n">
-        <v>-0.07484798536000276</v>
+        <v>-0.07484798536000259</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.030580608175046</v>
+        <v>-0.03058060817504603</v>
       </c>
       <c r="AA63" t="n">
-        <v>-0.04527396224753155</v>
+        <v>-0.04527396224753166</v>
       </c>
     </row>
     <row r="64">
@@ -5730,7 +5730,7 @@
         <v>12.30289166892086</v>
       </c>
       <c r="E64" t="n">
-        <v>7.168621988460158</v>
+        <v>7.16862198846016</v>
       </c>
       <c r="F64" t="n">
         <v>18.3341183490706</v>
@@ -5754,7 +5754,7 @@
         <v>11.87055054845726</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.655481000788436</v>
+        <v>-1.655481000788432</v>
       </c>
       <c r="N64" t="n">
         <v>-2.168206448097793</v>
@@ -5763,7 +5763,7 @@
         <v>-0.4582896235662055</v>
       </c>
       <c r="P64" t="n">
-        <v>5.409607179382865</v>
+        <v>5.409607179382864</v>
       </c>
       <c r="Q64" t="n">
         <v>3.278172729232246</v>
@@ -5772,7 +5772,7 @@
         <v>7.674326969249524</v>
       </c>
       <c r="S64" t="n">
-        <v>4.714937840426853</v>
+        <v>4.714937840426855</v>
       </c>
       <c r="T64" t="n">
         <v>2.655449624694825</v>
@@ -5793,7 +5793,7 @@
         <v>0.5628503536612126</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.02471147782820502</v>
+        <v>0.024711477828205</v>
       </c>
       <c r="AA64" t="n">
         <v>1.360022442882638</v>
@@ -5813,13 +5813,13 @@
         <v>-3.473486655211752</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.825462835557031</v>
+        <v>-1.825462835557032</v>
       </c>
       <c r="F65" t="n">
         <v>-5.525459627543581</v>
       </c>
       <c r="G65" t="n">
-        <v>6.011817302710703</v>
+        <v>6.011817302710704</v>
       </c>
       <c r="H65" t="n">
         <v>4.012947687818714</v>
@@ -5855,7 +5855,7 @@
         <v>14.35722983407116</v>
       </c>
       <c r="S65" t="n">
-        <v>3.193721614825713</v>
+        <v>3.193721614825711</v>
       </c>
       <c r="T65" t="n">
         <v>1.557880241928276</v>
@@ -5876,7 +5876,7 @@
         <v>0.1287799459721664</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.03005531347464063</v>
+        <v>0.03005531347464066</v>
       </c>
       <c r="AA65" t="n">
         <v>0.3459859106832524</v>
@@ -5920,7 +5920,7 @@
         <v>21.87634506917484</v>
       </c>
       <c r="M66" t="n">
-        <v>2.062964329511072</v>
+        <v>2.062964329511074</v>
       </c>
       <c r="N66" t="n">
         <v>0.8601192087005334</v>
@@ -5929,13 +5929,13 @@
         <v>3.812380591607454</v>
       </c>
       <c r="P66" t="n">
-        <v>2.178306754828976</v>
+        <v>2.178306754828975</v>
       </c>
       <c r="Q66" t="n">
         <v>0.9488824091397738</v>
       </c>
       <c r="R66" t="n">
-        <v>3.854606630117874</v>
+        <v>3.854606630117873</v>
       </c>
       <c r="S66" t="n">
         <v>1.56659757409167</v>
@@ -5956,10 +5956,10 @@
         <v>1.571778501974002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1718117192869197</v>
+        <v>0.1718117192869199</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.003446700054063646</v>
+        <v>-0.003446700054063667</v>
       </c>
       <c r="AA66" t="n">
         <v>0.4880866161920036</v>
@@ -6003,7 +6003,7 @@
         <v>22.192208995897</v>
       </c>
       <c r="M67" t="n">
-        <v>8.456704061917671</v>
+        <v>8.456704061917673</v>
       </c>
       <c r="N67" t="n">
         <v>5.146661473448933</v>
@@ -6042,7 +6042,7 @@
         <v>0.2202984519631161</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.004425360172837929</v>
+        <v>0.004425360172837919</v>
       </c>
       <c r="AA67" t="n">
         <v>0.5975868786561245</v>
@@ -6062,10 +6062,10 @@
         <v>2.253446965431269</v>
       </c>
       <c r="E68" t="n">
-        <v>1.095834051987936</v>
+        <v>1.095834051987937</v>
       </c>
       <c r="F68" t="n">
-        <v>4.071569219326616</v>
+        <v>4.071569219326615</v>
       </c>
       <c r="G68" t="n">
         <v>10.35992138110164</v>
@@ -6074,7 +6074,7 @@
         <v>5.941509105322361</v>
       </c>
       <c r="I68" t="n">
-        <v>15.4454593051992</v>
+        <v>15.44545930519921</v>
       </c>
       <c r="J68" t="n">
         <v>11.53461406277066</v>
@@ -6104,7 +6104,7 @@
         <v>11.90790418297822</v>
       </c>
       <c r="S68" t="n">
-        <v>5.504639348757232</v>
+        <v>5.504639348757234</v>
       </c>
       <c r="T68" t="n">
         <v>3.09678150160607</v>
@@ -6178,19 +6178,19 @@
         <v>23.402980788473</v>
       </c>
       <c r="P69" t="n">
-        <v>3.013659703593628</v>
+        <v>3.013659703593629</v>
       </c>
       <c r="Q69" t="n">
         <v>1.324070995681214</v>
       </c>
       <c r="R69" t="n">
-        <v>5.401254705099994</v>
+        <v>5.401254705099995</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01588228410739312</v>
+        <v>0.01588228410739179</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.3640691778406631</v>
+        <v>-0.3640691778406635</v>
       </c>
       <c r="U69" t="n">
         <v>0.9660101501578398</v>
@@ -6205,10 +6205,10 @@
         <v>-0.2013125612492677</v>
       </c>
       <c r="Y69" t="n">
-        <v>-0.1193049444198919</v>
+        <v>-0.1193049444198918</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.01010213642369976</v>
+        <v>-0.01010213642369977</v>
       </c>
       <c r="AA69" t="n">
         <v>-0.1783015715369473</v>
@@ -6246,7 +6246,7 @@
         <v>11.19956197289892</v>
       </c>
       <c r="K70" t="n">
-        <v>6.477101168202273</v>
+        <v>6.477101168202272</v>
       </c>
       <c r="L70" t="n">
         <v>16.91953298663161</v>
@@ -6270,13 +6270,13 @@
         <v>14.81745708261968</v>
       </c>
       <c r="S70" t="n">
-        <v>6.329973438761253</v>
+        <v>6.329973438761254</v>
       </c>
       <c r="T70" t="n">
         <v>3.592508089966048</v>
       </c>
       <c r="U70" t="n">
-        <v>9.329985823379415</v>
+        <v>9.329985823379417</v>
       </c>
       <c r="V70" t="n">
         <v>3.036360328351021</v>
@@ -6288,10 +6288,10 @@
         <v>5.021705589843494</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.614531375271598</v>
+        <v>0.6145313752715977</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.04906225246776226</v>
+        <v>0.04906225246776227</v>
       </c>
       <c r="AA70" t="n">
         <v>1.452377877547488</v>
@@ -6311,7 +6311,7 @@
         <v>-9.173969991052882</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.887919994209608</v>
+        <v>-5.88791999420961</v>
       </c>
       <c r="F71" t="n">
         <v>-12.54175727377909</v>
@@ -6353,7 +6353,7 @@
         <v>18.11227340389293</v>
       </c>
       <c r="S71" t="n">
-        <v>6.334484280638448</v>
+        <v>6.334484280638447</v>
       </c>
       <c r="T71" t="n">
         <v>3.53864802188749</v>
@@ -6368,13 +6368,13 @@
         <v>1.25526796369155</v>
       </c>
       <c r="X71" t="n">
-        <v>4.571812288183601</v>
+        <v>4.5718122881836</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.520408281409477</v>
+        <v>0.5204082814094769</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.05936521556867518</v>
+        <v>0.0593652155686752</v>
       </c>
       <c r="AA71" t="n">
         <v>1.215231160180575</v>
@@ -6391,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5400817373349343</v>
+        <v>0.5400817373349351</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2299098037182281</v>
+        <v>0.229909803718229</v>
       </c>
       <c r="F72" t="n">
-        <v>1.132790270085273</v>
+        <v>1.132790270085271</v>
       </c>
       <c r="G72" t="n">
         <v>8.683045802849499</v>
@@ -6412,7 +6412,7 @@
         <v>15.8906732998031</v>
       </c>
       <c r="K72" t="n">
-        <v>9.868419438933973</v>
+        <v>9.868419438933971</v>
       </c>
       <c r="L72" t="n">
         <v>22.51500136840834</v>
